--- a/templates/excelFile/arrival_excel.xlsx
+++ b/templates/excelFile/arrival_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Projects\temerso_test\app\public\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Projects\temerso_test\app\templates\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -339,13 +339,18 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -635,34 +640,13 @@
   <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" customWidth="1"/>
-    <col min="5" max="5" width="8.73046875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="6.3984375" customWidth="1"/>
-    <col min="8" max="8" width="6.265625" customWidth="1"/>
-    <col min="9" max="9" width="5.59765625" customWidth="1"/>
-    <col min="10" max="10" width="8.73046875" customWidth="1"/>
-    <col min="11" max="11" width="6.73046875" customWidth="1"/>
-    <col min="12" max="12" width="6.265625" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="8.3984375" customWidth="1"/>
-    <col min="15" max="15" width="5.59765625" customWidth="1"/>
-    <col min="16" max="16" width="4.86328125" customWidth="1"/>
-    <col min="17" max="17" width="6.265625" customWidth="1"/>
-    <col min="19" max="19" width="12.86328125" customWidth="1"/>
-    <col min="22" max="22" width="18.1328125" customWidth="1"/>
-    <col min="23" max="23" width="16" customWidth="1"/>
-    <col min="27" max="27" width="15.1328125" customWidth="1"/>
-    <col min="28" max="28" width="15.265625" customWidth="1"/>
-    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="2" max="29" width="10.59765625" customWidth="1"/>
     <col min="40" max="40" width="8" customWidth="1"/>
     <col min="57" max="57" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
@@ -671,10 +655,10 @@
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="16">
         <v>43132</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -706,11 +690,11 @@
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -737,7 +721,7 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
     </row>
-    <row r="3" spans="1:68" ht="133.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:68" ht="113.25" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -828,34 +812,34 @@
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="15"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -884,7 +868,7 @@
       <c r="BP4" s="2"/>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6">
@@ -915,8 +899,8 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="15"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -950,5 +934,6 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>